--- a/StudentPreference20.xlsx
+++ b/StudentPreference20.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="85">
   <si>
     <t>First Name</t>
   </si>
@@ -56,190 +56,145 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Jasmine</t>
-  </si>
-  <si>
-    <t>Guy</t>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Barrow</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>eating carrots</t>
-  </si>
-  <si>
-    <t>falling in love</t>
-  </si>
-  <si>
-    <t>amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>punishing terrorists</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>breaking heads</t>
-  </si>
-  <si>
-    <t>building an army</t>
-  </si>
-  <si>
-    <t>studying magic tricks</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>squandering money</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Dean</t>
-  </si>
-  <si>
-    <t>searching for the messiah</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>striving for world domination</t>
-  </si>
-  <si>
-    <t>singing goofy songs</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>MacArthur</t>
-  </si>
-  <si>
-    <t>manipulating political pawns</t>
-  </si>
-  <si>
-    <t>Syd</t>
-  </si>
-  <si>
-    <t>Barrett</t>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>starting thunderstorms</t>
+  </si>
+  <si>
+    <t>preparing for war</t>
+  </si>
+  <si>
+    <t>running a fast-food business</t>
+  </si>
+  <si>
+    <t>convicting criminals</t>
+  </si>
+  <si>
+    <t>duelling acrobatically</t>
+  </si>
+  <si>
+    <t>getting a nose job</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Russell</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>cooking fancy food</t>
-  </si>
-  <si>
-    <t>starring in pornographic movies</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>constructing an ironic public image</t>
-  </si>
-  <si>
-    <t>running for the senate</t>
-  </si>
-  <si>
-    <t>writing blues songs</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>ranting about politics</t>
-  </si>
-  <si>
-    <t>promoting Fascism</t>
-  </si>
-  <si>
-    <t>piquing public interest</t>
-  </si>
-  <si>
-    <t>Josh</t>
-  </si>
-  <si>
-    <t>Golden</t>
-  </si>
-  <si>
-    <t>Kate</t>
-  </si>
-  <si>
-    <t>Capshaw</t>
-  </si>
-  <si>
-    <t>biting opponents</t>
-  </si>
-  <si>
-    <t>promoting new technologies</t>
-  </si>
-  <si>
-    <t>planning tank battles</t>
-  </si>
-  <si>
-    <t>playing ice hockey</t>
-  </si>
-  <si>
-    <t>Geddy</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Ed</t>
-  </si>
-  <si>
-    <t>McMahon</t>
-  </si>
-  <si>
-    <t>Astrud</t>
-  </si>
-  <si>
-    <t>Gilberto</t>
-  </si>
-  <si>
-    <t>Whitney</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Claire</t>
-  </si>
-  <si>
-    <t>Trevor</t>
-  </si>
-  <si>
-    <t>Dom</t>
-  </si>
-  <si>
-    <t>DeLuise</t>
-  </si>
-  <si>
-    <t>C.</t>
-  </si>
-  <si>
-    <t>Howell</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Walker</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Rodia</t>
+    <t>inventing electrical marvels</t>
+  </si>
+  <si>
+    <t>performing household chores</t>
+  </si>
+  <si>
+    <t>flirting with rednecks</t>
+  </si>
+  <si>
+    <t>eluding the FBI</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>promoting world peace</t>
+  </si>
+  <si>
+    <t>working out</t>
+  </si>
+  <si>
+    <t>hiding from the public</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Bonaduce</t>
+  </si>
+  <si>
+    <t>making political gaffes</t>
+  </si>
+  <si>
+    <t>entertaining teenagers</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>writing comedy</t>
+  </si>
+  <si>
+    <t>building airplanes</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Koufax</t>
+  </si>
+  <si>
+    <t>guarding the galaxy</t>
+  </si>
+  <si>
+    <t>Mickey</t>
+  </si>
+  <si>
+    <t>Rooney</t>
+  </si>
+  <si>
+    <t>executing morally appalling plans</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Landers</t>
+  </si>
+  <si>
+    <t>exploring the new world</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Hagman</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Vivaldi</t>
+  </si>
+  <si>
+    <t>coining sparkling witticisms</t>
   </si>
   <si>
     <t>Jean</t>
@@ -248,28 +203,70 @@
     <t>Chrétien</t>
   </si>
   <si>
-    <t>Merle</t>
-  </si>
-  <si>
-    <t>Haggard</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Barry</t>
-  </si>
-  <si>
-    <t>Brad</t>
-  </si>
-  <si>
-    <t>Dourif</t>
-  </si>
-  <si>
-    <t>Dale</t>
-  </si>
-  <si>
-    <t>Earnhart</t>
+    <t>Ozzie</t>
+  </si>
+  <si>
+    <t>Ozbourne</t>
+  </si>
+  <si>
+    <t>Robbie</t>
+  </si>
+  <si>
+    <t>Coltrane</t>
+  </si>
+  <si>
+    <t>Herb</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Bram</t>
+  </si>
+  <si>
+    <t>Stoker</t>
+  </si>
+  <si>
+    <t>Nat</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Kroc</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>MacGraw</t>
+  </si>
+  <si>
+    <t>Orphan</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t>Corbusier</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Guttenburg</t>
   </si>
 </sst>
 </file>
@@ -331,16 +328,16 @@
     <col min="2" max="2" width="13.54296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.95703125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.69921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="32.2421875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="29.44140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="32.2421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="32.2421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="32.2421875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="32.2421875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="32.2421875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="32.2421875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="27.02734375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="29.44140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.8125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.8125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="30.7890625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="30.7890625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="30.8125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="30.7890625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="30.7890625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="30.8125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="30.8125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -395,7 +392,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>3.2784788E7</v>
+        <v>3.0135434E7</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -419,192 +416,192 @@
         <v>22</v>
       </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="n">
+        <v>8.6410212E7</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="n">
-        <v>8.9476884E7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.1827758E7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.9734893E7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C5" t="n">
-        <v>6.4600572E7</v>
+        <v>2.6615632E7</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
       <c r="C6" t="n">
-        <v>4.7214872E7</v>
+        <v>3.8974997E7</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -615,656 +612,656 @@
         <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>6.8599551E7</v>
+        <v>5.3341125E7</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
         <v>54</v>
       </c>
-      <c r="G7" t="s">
+      <c r="N7" t="s">
         <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="n">
-        <v>9.8897039E7</v>
+        <v>9.5502746E7</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" t="n">
-        <v>4.4402927E7</v>
+        <v>8.3650098E7</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
         <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
       <c r="C10" t="n">
-        <v>5.8757451E7</v>
+        <v>4.9001339E7</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" t="s">
         <v>43</v>
       </c>
-      <c r="L10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" t="s">
-        <v>55</v>
-      </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
       <c r="C11" t="n">
-        <v>7.8755389E7</v>
+        <v>2.1290423E7</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
       <c r="C12" t="n">
-        <v>7.8073494E7</v>
+        <v>5.013028E7</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N12" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
         <v>68</v>
       </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
       <c r="C13" t="n">
-        <v>7.1777396E7</v>
+        <v>4.0610845E7</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="M13" t="s">
         <v>55</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" t="s">
-        <v>49</v>
-      </c>
       <c r="N13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
       <c r="C14" t="n">
-        <v>7.9561227E7</v>
+        <v>6.3632274E7</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
         <v>25</v>
       </c>
       <c r="N14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
         <v>72</v>
       </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
       <c r="C15" t="n">
-        <v>9.0641169E7</v>
+        <v>3.5285922E7</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
       <c r="C16" t="n">
-        <v>7.1455418E7</v>
+        <v>1.488697E7</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" t="s">
         <v>29</v>
       </c>
-      <c r="J16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" t="s">
-        <v>22</v>
-      </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" t="s">
         <v>32</v>
-      </c>
-      <c r="N16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
         <v>76</v>
       </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
       <c r="C17" t="n">
-        <v>3.204056E7</v>
+        <v>7.165875E7</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L17" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N17" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
       <c r="C18" t="n">
-        <v>3.6482774E7</v>
+        <v>8.6354585E7</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
         <v>80</v>
       </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
       <c r="C19" t="n">
-        <v>7.8137619E7</v>
+        <v>6.1550869E7</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
         <v>54</v>
       </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
-        <v>57</v>
-      </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N19" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
         <v>82</v>
       </c>
-      <c r="B20" t="s">
-        <v>83</v>
-      </c>
       <c r="C20" t="n">
-        <v>2.8520456E7</v>
+        <v>4.3196429E7</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" t="s">
         <v>41</v>
-      </c>
-      <c r="I20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
         <v>84</v>
       </c>
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
       <c r="C21" t="n">
-        <v>1.4979481E7</v>
+        <v>9.9269781E7</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" t="s">
         <v>45</v>
       </c>
-      <c r="G21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" t="s">
-        <v>47</v>
-      </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
